--- a/Клиенты.xlsx
+++ b/Клиенты.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\di.dmitrieva\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\di.dmitrieva\Desktop\Новая папка\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Страна</t>
   </si>
@@ -415,6 +415,9 @@
   </si>
   <si>
     <t xml:space="preserve">Шляпникова Ольга Игоревна &lt;oi.shliapnikova@sveza.com&gt; </t>
+  </si>
+  <si>
+    <t>или не быть - вот в чём вопрос.</t>
   </si>
 </sst>
 </file>
@@ -870,19 +873,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="35.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.36328125" customWidth="1"/>
+    <col min="3" max="3" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -893,7 +896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -910,7 +913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -925,7 +928,7 @@
       </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -940,7 +943,7 @@
       </c>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -955,7 +958,7 @@
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -970,7 +973,7 @@
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -985,7 +988,7 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -999,28 +1002,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="10"/>
       <c r="D9" s="14"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
